--- a/Vaccination/Dataset(LGA weekly)/LGA Dose 2(Aggregated).xlsx
+++ b/Vaccination/Dataset(LGA weekly)/LGA Dose 2(Aggregated).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="491">
   <si>
     <t>LGA 2019 Name of Residence</t>
   </si>
@@ -28,12 +28,15 @@
     <t>Population</t>
   </si>
   <si>
+    <t>18-october-2021</t>
+  </si>
+  <si>
+    <t>4-october-2021</t>
+  </si>
+  <si>
     <t>11-october-2021</t>
   </si>
   <si>
-    <t>4-october-2021</t>
-  </si>
-  <si>
     <t>27-september-2021-0</t>
   </si>
   <si>
@@ -454,15 +457,552 @@
     <t>Very Remote Australia - see note and refer to SA4 data</t>
   </si>
   <si>
+    <t>72.5%</t>
+  </si>
+  <si>
+    <t>71.8%</t>
+  </si>
+  <si>
+    <t>71.4%</t>
+  </si>
+  <si>
+    <t>66.9%</t>
+  </si>
+  <si>
+    <t>81.8%</t>
+  </si>
+  <si>
+    <t>79.8%</t>
+  </si>
+  <si>
+    <t>81.7%</t>
+  </si>
+  <si>
+    <t>69.8%</t>
+  </si>
+  <si>
+    <t>79.1%</t>
+  </si>
+  <si>
+    <t>90.5%</t>
+  </si>
+  <si>
+    <t>85.7%</t>
+  </si>
+  <si>
+    <t>85.3%</t>
+  </si>
+  <si>
+    <t>76.6%</t>
+  </si>
+  <si>
+    <t>82.4%</t>
+  </si>
+  <si>
+    <t>55.3%</t>
+  </si>
+  <si>
+    <t>82.5%</t>
+  </si>
+  <si>
+    <t>&gt;95%</t>
+  </si>
+  <si>
+    <t>87.8%</t>
+  </si>
+  <si>
+    <t>79.0%</t>
+  </si>
+  <si>
+    <t>81.5%</t>
+  </si>
+  <si>
+    <t>80.8%</t>
+  </si>
+  <si>
+    <t>70.1%</t>
+  </si>
+  <si>
+    <t>66.5%</t>
+  </si>
+  <si>
+    <t>67.8%</t>
+  </si>
+  <si>
+    <t>78.4%</t>
+  </si>
+  <si>
+    <t>83.7%</t>
+  </si>
+  <si>
+    <t>84.1%</t>
+  </si>
+  <si>
+    <t>81.9%</t>
+  </si>
+  <si>
+    <t>86.4%</t>
+  </si>
+  <si>
+    <t>76.1%</t>
+  </si>
+  <si>
+    <t>55.1%</t>
+  </si>
+  <si>
+    <t>86.8%</t>
+  </si>
+  <si>
+    <t>82.8%</t>
+  </si>
+  <si>
+    <t>77.7%</t>
+  </si>
+  <si>
+    <t>82.0%</t>
+  </si>
+  <si>
+    <t>80.9%</t>
+  </si>
+  <si>
+    <t>88.0%</t>
+  </si>
+  <si>
+    <t>74.6%</t>
+  </si>
+  <si>
+    <t>69.9%</t>
+  </si>
+  <si>
+    <t>77.1%</t>
+  </si>
+  <si>
+    <t>76.3%</t>
+  </si>
+  <si>
+    <t>66.7%</t>
+  </si>
+  <si>
+    <t>85.2%</t>
+  </si>
+  <si>
+    <t>88.6%</t>
+  </si>
+  <si>
+    <t>84.6%</t>
+  </si>
+  <si>
+    <t>92.4%</t>
+  </si>
+  <si>
+    <t>83.8%</t>
+  </si>
+  <si>
+    <t>76.7%</t>
+  </si>
+  <si>
+    <t>66.3%</t>
+  </si>
+  <si>
+    <t>68.4%</t>
+  </si>
+  <si>
+    <t>93.6%</t>
+  </si>
+  <si>
+    <t>63.5%</t>
+  </si>
+  <si>
+    <t>89.1%</t>
+  </si>
+  <si>
+    <t>78.7%</t>
+  </si>
+  <si>
+    <t>86.1%</t>
+  </si>
+  <si>
+    <t>61.8%</t>
+  </si>
+  <si>
+    <t>79.6%</t>
+  </si>
+  <si>
+    <t>82.6%</t>
+  </si>
+  <si>
+    <t>79.3%</t>
+  </si>
+  <si>
+    <t>75.4%</t>
+  </si>
+  <si>
+    <t>73.8%</t>
+  </si>
+  <si>
+    <t>82.1%</t>
+  </si>
+  <si>
+    <t>70.2%</t>
+  </si>
+  <si>
+    <t>86.2%</t>
+  </si>
+  <si>
+    <t>70.5%</t>
+  </si>
+  <si>
+    <t>68.6%</t>
+  </si>
+  <si>
+    <t>67.4%</t>
+  </si>
+  <si>
+    <t>86.5%</t>
+  </si>
+  <si>
+    <t>74.9%</t>
+  </si>
+  <si>
+    <t>87.2%</t>
+  </si>
+  <si>
+    <t>80.2%</t>
+  </si>
+  <si>
+    <t>87.3%</t>
+  </si>
+  <si>
+    <t>80.0%</t>
+  </si>
+  <si>
+    <t>85.6%</t>
+  </si>
+  <si>
+    <t>84.0%</t>
+  </si>
+  <si>
+    <t>79.4%</t>
+  </si>
+  <si>
+    <t>75.6%</t>
+  </si>
+  <si>
+    <t>73.2%</t>
+  </si>
+  <si>
+    <t>62.0%</t>
+  </si>
+  <si>
+    <t>83.4%</t>
+  </si>
+  <si>
+    <t>81.1%</t>
+  </si>
+  <si>
+    <t>72.7%</t>
+  </si>
+  <si>
+    <t>73.9%</t>
+  </si>
+  <si>
+    <t>67.6%</t>
+  </si>
+  <si>
+    <t>75.3%</t>
+  </si>
+  <si>
+    <t>74.7%</t>
+  </si>
+  <si>
+    <t>63.0%</t>
+  </si>
+  <si>
+    <t>65.9%</t>
+  </si>
+  <si>
+    <t>84.8%</t>
+  </si>
+  <si>
+    <t>84.5%</t>
+  </si>
+  <si>
+    <t>76.8%</t>
+  </si>
+  <si>
+    <t>76.4%</t>
+  </si>
+  <si>
+    <t>86.7%</t>
+  </si>
+  <si>
+    <t>78.2%</t>
+  </si>
+  <si>
+    <t>87.1%</t>
+  </si>
+  <si>
+    <t>68.3%</t>
+  </si>
+  <si>
+    <t>85.4%</t>
+  </si>
+  <si>
+    <t>84.4%</t>
+  </si>
+  <si>
+    <t>81.0%</t>
+  </si>
+  <si>
+    <t>54.6%</t>
+  </si>
+  <si>
+    <t>57.5%</t>
+  </si>
+  <si>
+    <t>57.8%</t>
+  </si>
+  <si>
+    <t>54.3%</t>
+  </si>
+  <si>
+    <t>67.5%</t>
+  </si>
+  <si>
+    <t>66.1%</t>
+  </si>
+  <si>
+    <t>68.5%</t>
+  </si>
+  <si>
+    <t>58.3%</t>
+  </si>
+  <si>
+    <t>65.1%</t>
+  </si>
+  <si>
+    <t>64.9%</t>
+  </si>
+  <si>
+    <t>72.2%</t>
+  </si>
+  <si>
+    <t>65.6%</t>
+  </si>
+  <si>
+    <t>41.6%</t>
+  </si>
+  <si>
+    <t>79.9%</t>
+  </si>
+  <si>
+    <t>73.5%</t>
+  </si>
+  <si>
+    <t>69.2%</t>
+  </si>
+  <si>
+    <t>68.0%</t>
+  </si>
+  <si>
+    <t>65.2%</t>
+  </si>
+  <si>
+    <t>49.2%</t>
+  </si>
+  <si>
+    <t>50.3%</t>
+  </si>
+  <si>
+    <t>51.0%</t>
+  </si>
+  <si>
+    <t>70.7%</t>
+  </si>
+  <si>
+    <t>73.4%</t>
+  </si>
+  <si>
+    <t>58.7%</t>
+  </si>
+  <si>
+    <t>45.0%</t>
+  </si>
+  <si>
+    <t>68.9%</t>
+  </si>
+  <si>
+    <t>62.5%</t>
+  </si>
+  <si>
+    <t>77.4%</t>
+  </si>
+  <si>
+    <t>64.8%</t>
+  </si>
+  <si>
+    <t>58.2%</t>
+  </si>
+  <si>
+    <t>52.0%</t>
+  </si>
+  <si>
     <t>61.4%</t>
   </si>
   <si>
+    <t>46.4%</t>
+  </si>
+  <si>
+    <t>52.4%</t>
+  </si>
+  <si>
+    <t>70.3%</t>
+  </si>
+  <si>
+    <t>81.6%</t>
+  </si>
+  <si>
+    <t>75.7%</t>
+  </si>
+  <si>
+    <t>68.7%</t>
+  </si>
+  <si>
+    <t>49.8%</t>
+  </si>
+  <si>
+    <t>52.5%</t>
+  </si>
+  <si>
+    <t>52.1%</t>
+  </si>
+  <si>
+    <t>72.0%</t>
+  </si>
+  <si>
+    <t>77.2%</t>
+  </si>
+  <si>
+    <t>61.0%</t>
+  </si>
+  <si>
+    <t>52.7%</t>
+  </si>
+  <si>
+    <t>47.0%</t>
+  </si>
+  <si>
+    <t>59.6%</t>
+  </si>
+  <si>
+    <t>65.3%</t>
+  </si>
+  <si>
+    <t>55.7%</t>
+  </si>
+  <si>
+    <t>78.1%</t>
+  </si>
+  <si>
+    <t>51.6%</t>
+  </si>
+  <si>
+    <t>47.7%</t>
+  </si>
+  <si>
+    <t>58.8%</t>
+  </si>
+  <si>
+    <t>54.0%</t>
+  </si>
+  <si>
+    <t>69.3%</t>
+  </si>
+  <si>
+    <t>58.9%</t>
+  </si>
+  <si>
+    <t>66.8%</t>
+  </si>
+  <si>
+    <t>72.6%</t>
+  </si>
+  <si>
+    <t>72.4%</t>
+  </si>
+  <si>
+    <t>62.1%</t>
+  </si>
+  <si>
+    <t>59.5%</t>
+  </si>
+  <si>
+    <t>63.4%</t>
+  </si>
+  <si>
+    <t>63.7%</t>
+  </si>
+  <si>
+    <t>66.0%</t>
+  </si>
+  <si>
+    <t>49.9%</t>
+  </si>
+  <si>
+    <t>60.8%</t>
+  </si>
+  <si>
+    <t>59.7%</t>
+  </si>
+  <si>
+    <t>68.8%</t>
+  </si>
+  <si>
+    <t>77.9%</t>
+  </si>
+  <si>
+    <t>58.4%</t>
+  </si>
+  <si>
+    <t>57.1%</t>
+  </si>
+  <si>
+    <t>54.8%</t>
+  </si>
+  <si>
+    <t>45.1%</t>
+  </si>
+  <si>
+    <t>84.9%</t>
+  </si>
+  <si>
+    <t>65.8%</t>
+  </si>
+  <si>
+    <t>62.3%</t>
+  </si>
+  <si>
+    <t>60.6%</t>
+  </si>
+  <si>
+    <t>72.3%</t>
+  </si>
+  <si>
+    <t>69.1%</t>
+  </si>
+  <si>
+    <t>56.6%</t>
+  </si>
+  <si>
+    <t>71.2%</t>
+  </si>
+  <si>
+    <t>63.3%</t>
+  </si>
+  <si>
     <t>64.1%</t>
   </si>
   <si>
-    <t>63.3%</t>
-  </si>
-  <si>
     <t>59.3%</t>
   </si>
   <si>
@@ -493,81 +1033,33 @@
     <t>78.6%</t>
   </si>
   <si>
-    <t>71.4%</t>
-  </si>
-  <si>
-    <t>75.3%</t>
-  </si>
-  <si>
     <t>47.1%</t>
   </si>
   <si>
     <t>75.1%</t>
   </si>
   <si>
-    <t>89.1%</t>
-  </si>
-  <si>
-    <t>80.8%</t>
-  </si>
-  <si>
     <t>74.5%</t>
   </si>
   <si>
-    <t>72.6%</t>
-  </si>
-  <si>
-    <t>58.4%</t>
-  </si>
-  <si>
-    <t>56.6%</t>
-  </si>
-  <si>
     <t>57.9%</t>
   </si>
   <si>
-    <t>67.6%</t>
-  </si>
-  <si>
-    <t>76.7%</t>
-  </si>
-  <si>
-    <t>73.8%</t>
-  </si>
-  <si>
-    <t>79.9%</t>
-  </si>
-  <si>
-    <t>66.1%</t>
-  </si>
-  <si>
-    <t>47.7%</t>
-  </si>
-  <si>
     <t>78.9%</t>
   </si>
   <si>
-    <t>76.4%</t>
-  </si>
-  <si>
     <t>69.7%</t>
   </si>
   <si>
     <t>73.7%</t>
   </si>
   <si>
-    <t>83.7%</t>
-  </si>
-  <si>
     <t>64.4%</t>
   </si>
   <si>
     <t>59.1%</t>
   </si>
   <si>
-    <t>67.8%</t>
-  </si>
-  <si>
     <t>66.6%</t>
   </si>
   <si>
@@ -577,15 +1069,6 @@
     <t>78.3%</t>
   </si>
   <si>
-    <t>82.0%</t>
-  </si>
-  <si>
-    <t>74.7%</t>
-  </si>
-  <si>
-    <t>87.2%</t>
-  </si>
-  <si>
     <t>79.5%</t>
   </si>
   <si>
@@ -598,9 +1081,6 @@
     <t>57.3%</t>
   </si>
   <si>
-    <t>58.7%</t>
-  </si>
-  <si>
     <t>78.8%</t>
   </si>
   <si>
@@ -610,15 +1090,6 @@
     <t>57.2%</t>
   </si>
   <si>
-    <t>83.4%</t>
-  </si>
-  <si>
-    <t>68.9%</t>
-  </si>
-  <si>
-    <t>81.9%</t>
-  </si>
-  <si>
     <t>59.9%</t>
   </si>
   <si>
@@ -640,48 +1111,15 @@
     <t>65.0%</t>
   </si>
   <si>
-    <t>60.8%</t>
-  </si>
-  <si>
-    <t>82.5%</t>
-  </si>
-  <si>
-    <t>87.3%</t>
-  </si>
-  <si>
-    <t>57.5%</t>
-  </si>
-  <si>
     <t>56.5%</t>
   </si>
   <si>
     <t>60.0%</t>
   </si>
   <si>
-    <t>68.4%</t>
-  </si>
-  <si>
-    <t>76.8%</t>
-  </si>
-  <si>
-    <t>66.5%</t>
-  </si>
-  <si>
-    <t>79.4%</t>
-  </si>
-  <si>
-    <t>72.7%</t>
-  </si>
-  <si>
-    <t>66.3%</t>
-  </si>
-  <si>
     <t>54.9%</t>
   </si>
   <si>
-    <t>78.1%</t>
-  </si>
-  <si>
     <t>71.9%</t>
   </si>
   <si>
@@ -691,21 +1129,12 @@
     <t>60.7%</t>
   </si>
   <si>
-    <t>67.5%</t>
-  </si>
-  <si>
-    <t>65.8%</t>
-  </si>
-  <si>
     <t>75.5%</t>
   </si>
   <si>
     <t>83.9%</t>
   </si>
   <si>
-    <t>65.6%</t>
-  </si>
-  <si>
     <t>64.7%</t>
   </si>
   <si>
@@ -715,24 +1144,12 @@
     <t>91.6%</t>
   </si>
   <si>
-    <t>58.2%</t>
-  </si>
-  <si>
-    <t>75.4%</t>
-  </si>
-  <si>
     <t>67.2%</t>
   </si>
   <si>
     <t>80.6%</t>
   </si>
   <si>
-    <t>72.5%</t>
-  </si>
-  <si>
-    <t>77.2%</t>
-  </si>
-  <si>
     <t>60.5%</t>
   </si>
   <si>
@@ -745,237 +1162,6 @@
     <t>70.6%</t>
   </si>
   <si>
-    <t>81.1%</t>
-  </si>
-  <si>
-    <t>70.2%</t>
-  </si>
-  <si>
-    <t>54.6%</t>
-  </si>
-  <si>
-    <t>57.8%</t>
-  </si>
-  <si>
-    <t>54.3%</t>
-  </si>
-  <si>
-    <t>68.5%</t>
-  </si>
-  <si>
-    <t>58.3%</t>
-  </si>
-  <si>
-    <t>65.1%</t>
-  </si>
-  <si>
-    <t>64.9%</t>
-  </si>
-  <si>
-    <t>72.2%</t>
-  </si>
-  <si>
-    <t>66.9%</t>
-  </si>
-  <si>
-    <t>41.6%</t>
-  </si>
-  <si>
-    <t>67.4%</t>
-  </si>
-  <si>
-    <t>73.5%</t>
-  </si>
-  <si>
-    <t>69.2%</t>
-  </si>
-  <si>
-    <t>68.0%</t>
-  </si>
-  <si>
-    <t>65.2%</t>
-  </si>
-  <si>
-    <t>49.2%</t>
-  </si>
-  <si>
-    <t>50.3%</t>
-  </si>
-  <si>
-    <t>51.0%</t>
-  </si>
-  <si>
-    <t>61.8%</t>
-  </si>
-  <si>
-    <t>70.7%</t>
-  </si>
-  <si>
-    <t>73.4%</t>
-  </si>
-  <si>
-    <t>45.0%</t>
-  </si>
-  <si>
-    <t>62.5%</t>
-  </si>
-  <si>
-    <t>77.4%</t>
-  </si>
-  <si>
-    <t>64.8%</t>
-  </si>
-  <si>
-    <t>52.0%</t>
-  </si>
-  <si>
-    <t>46.4%</t>
-  </si>
-  <si>
-    <t>52.4%</t>
-  </si>
-  <si>
-    <t>70.3%</t>
-  </si>
-  <si>
-    <t>81.6%</t>
-  </si>
-  <si>
-    <t>75.7%</t>
-  </si>
-  <si>
-    <t>68.7%</t>
-  </si>
-  <si>
-    <t>49.8%</t>
-  </si>
-  <si>
-    <t>52.5%</t>
-  </si>
-  <si>
-    <t>52.1%</t>
-  </si>
-  <si>
-    <t>72.0%</t>
-  </si>
-  <si>
-    <t>84.4%</t>
-  </si>
-  <si>
-    <t>61.0%</t>
-  </si>
-  <si>
-    <t>52.7%</t>
-  </si>
-  <si>
-    <t>47.0%</t>
-  </si>
-  <si>
-    <t>59.6%</t>
-  </si>
-  <si>
-    <t>65.3%</t>
-  </si>
-  <si>
-    <t>55.1%</t>
-  </si>
-  <si>
-    <t>68.3%</t>
-  </si>
-  <si>
-    <t>55.7%</t>
-  </si>
-  <si>
-    <t>80.2%</t>
-  </si>
-  <si>
-    <t>51.6%</t>
-  </si>
-  <si>
-    <t>58.8%</t>
-  </si>
-  <si>
-    <t>54.0%</t>
-  </si>
-  <si>
-    <t>69.3%</t>
-  </si>
-  <si>
-    <t>58.9%</t>
-  </si>
-  <si>
-    <t>70.5%</t>
-  </si>
-  <si>
-    <t>76.3%</t>
-  </si>
-  <si>
-    <t>66.8%</t>
-  </si>
-  <si>
-    <t>72.4%</t>
-  </si>
-  <si>
-    <t>63.0%</t>
-  </si>
-  <si>
-    <t>62.1%</t>
-  </si>
-  <si>
-    <t>59.5%</t>
-  </si>
-  <si>
-    <t>63.4%</t>
-  </si>
-  <si>
-    <t>63.7%</t>
-  </si>
-  <si>
-    <t>66.0%</t>
-  </si>
-  <si>
-    <t>49.9%</t>
-  </si>
-  <si>
-    <t>59.7%</t>
-  </si>
-  <si>
-    <t>68.8%</t>
-  </si>
-  <si>
-    <t>77.9%</t>
-  </si>
-  <si>
-    <t>57.1%</t>
-  </si>
-  <si>
-    <t>54.8%</t>
-  </si>
-  <si>
-    <t>45.1%</t>
-  </si>
-  <si>
-    <t>84.9%</t>
-  </si>
-  <si>
-    <t>62.3%</t>
-  </si>
-  <si>
-    <t>60.6%</t>
-  </si>
-  <si>
-    <t>72.3%</t>
-  </si>
-  <si>
-    <t>69.1%</t>
-  </si>
-  <si>
-    <t>73.9%</t>
-  </si>
-  <si>
-    <t>71.2%</t>
-  </si>
-  <si>
     <t>51.9%</t>
   </si>
   <si>
@@ -1099,9 +1285,6 @@
     <t>49.0%</t>
   </si>
   <si>
-    <t>73.2%</t>
-  </si>
-  <si>
     <t>73.0%</t>
   </si>
   <si>
@@ -1144,9 +1327,6 @@
     <t>50.2%</t>
   </si>
   <si>
-    <t>77.1%</t>
-  </si>
-  <si>
     <t>48.4%</t>
   </si>
   <si>
@@ -1159,9 +1339,6 @@
     <t>55.0%</t>
   </si>
   <si>
-    <t>55.3%</t>
-  </si>
-  <si>
     <t>63.2%</t>
   </si>
   <si>
@@ -1298,9 +1475,6 @@
   </si>
   <si>
     <t>51.2%</t>
-  </si>
-  <si>
-    <t>63.5%</t>
   </si>
   <si>
     <t>62.9%</t>
@@ -1670,13 +1844,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1710,437 +1884,473 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E2">
         <v>43782</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="I2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J2">
+        <v>264</v>
+      </c>
+      <c r="J2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K2">
         <v>0.4017861221506555</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.461530442336929</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.403</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3">
         <v>25368</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3">
+        <v>382</v>
+      </c>
+      <c r="J3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K3">
         <v>0.4255755282245349</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.3529075875930748</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.303</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E4">
         <v>37124</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I4" t="s">
-        <v>360</v>
-      </c>
-      <c r="J4">
+        <v>383</v>
+      </c>
+      <c r="J4" t="s">
+        <v>422</v>
+      </c>
+      <c r="K4">
         <v>0.4532108608986101</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.3751182592242194</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.317</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E5">
         <v>1859</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H5" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="I5" t="s">
-        <v>387</v>
-      </c>
-      <c r="J5">
+        <v>384</v>
+      </c>
+      <c r="J5" t="s">
+        <v>446</v>
+      </c>
+      <c r="K5">
         <v>0.3254437869822485</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.4202402758323457</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.384</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E6">
         <v>35111</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="H6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J6">
+        <v>385</v>
+      </c>
+      <c r="J6" t="s">
+        <v>395</v>
+      </c>
+      <c r="K6">
         <v>0.3981942980832218</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.3050026896180743</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.272</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E7">
         <v>150746</v>
       </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="H7" t="s">
-        <v>197</v>
+        <v>331</v>
       </c>
       <c r="I7" t="s">
-        <v>388</v>
-      </c>
-      <c r="J7">
+        <v>357</v>
+      </c>
+      <c r="J7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K7">
         <v>0.4212781765353641</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.3501466776793598</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.312</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E8">
         <v>28912</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>332</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J8">
+        <v>328</v>
+      </c>
+      <c r="J8" t="s">
+        <v>329</v>
+      </c>
+      <c r="K8">
         <v>0.5354178195904815</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.3637841136746581</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.308</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E9">
         <v>10692</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G9" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H9" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="I9" t="s">
-        <v>389</v>
-      </c>
-      <c r="J9">
+        <v>386</v>
+      </c>
+      <c r="J9" t="s">
+        <v>448</v>
+      </c>
+      <c r="K9">
         <v>0.4391133557800225</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.4753389596015496</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.412</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E10">
         <v>7307</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H10" t="s">
-        <v>208</v>
+        <v>334</v>
       </c>
       <c r="I10" t="s">
-        <v>310</v>
-      </c>
-      <c r="J10">
+        <v>311</v>
+      </c>
+      <c r="J10" t="s">
+        <v>316</v>
+      </c>
+      <c r="K10">
         <v>0.5286711372656356</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.4050692106247662</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.359</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E11">
         <v>289214</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="H11" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
       <c r="I11" t="s">
-        <v>310</v>
-      </c>
-      <c r="J11">
+        <v>376</v>
+      </c>
+      <c r="J11" t="s">
+        <v>316</v>
+      </c>
+      <c r="K11">
         <v>0.4869508391709945</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.4846038045709594</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.431</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E12">
         <v>4773</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H12" t="s">
-        <v>182</v>
+        <v>336</v>
       </c>
       <c r="I12" t="s">
-        <v>390</v>
-      </c>
-      <c r="J12">
+        <v>347</v>
+      </c>
+      <c r="J12" t="s">
+        <v>449</v>
+      </c>
+      <c r="K12">
         <v>0.4546406871988268</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.4156368640522243</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.354</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E13">
         <v>5867</v>
@@ -2149,36 +2359,39 @@
         <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="H13" t="s">
-        <v>211</v>
+        <v>337</v>
       </c>
       <c r="I13" t="s">
-        <v>260</v>
-      </c>
-      <c r="J13">
+        <v>247</v>
+      </c>
+      <c r="J13" t="s">
+        <v>264</v>
+      </c>
+      <c r="K13">
         <v>0.4133287881370376</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.396815420071234</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E14">
         <v>64784</v>
@@ -2187,93 +2400,96 @@
         <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H14" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
       <c r="I14" t="s">
-        <v>391</v>
-      </c>
-      <c r="J14">
+        <v>320</v>
+      </c>
+      <c r="J14" t="s">
+        <v>450</v>
+      </c>
+      <c r="K14">
         <v>0.5315818720671771</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.3700357934208284</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.329</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15">
         <v>2035</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.4766145961965917</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.419</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E16">
         <v>1930</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E17">
         <v>1231</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E18">
         <v>14532</v>
@@ -2282,30 +2498,33 @@
         <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="H18" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
       <c r="I18" t="s">
-        <v>261</v>
-      </c>
-      <c r="J18">
+        <v>387</v>
+      </c>
+      <c r="J18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K18">
         <v>0.4313239746765758</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E19">
         <v>35639</v>
@@ -2314,36 +2533,39 @@
         <v>160</v>
       </c>
       <c r="G19" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="H19" t="s">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="I19" t="s">
-        <v>392</v>
-      </c>
-      <c r="J19">
+        <v>388</v>
+      </c>
+      <c r="J19" t="s">
+        <v>451</v>
+      </c>
+      <c r="K19">
         <v>0.436179466314992</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.3752408477842004</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.347</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E20">
         <v>29052</v>
@@ -2352,36 +2574,39 @@
         <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H20" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="I20" t="s">
-        <v>393</v>
-      </c>
-      <c r="J20">
+        <v>389</v>
+      </c>
+      <c r="J20" t="s">
+        <v>452</v>
+      </c>
+      <c r="K20">
         <v>0.3179471292854192</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.3834002076377003</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.325</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E21">
         <v>10765</v>
@@ -2390,36 +2615,39 @@
         <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="H21" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="I21" t="s">
-        <v>394</v>
-      </c>
-      <c r="J21">
+        <v>390</v>
+      </c>
+      <c r="J21" t="s">
+        <v>453</v>
+      </c>
+      <c r="K21">
         <v>0.4253599628425453</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.2865551425030979</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.255</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E22">
         <v>76539</v>
@@ -2428,36 +2656,39 @@
         <v>163</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="H22" t="s">
-        <v>317</v>
+        <v>199</v>
       </c>
       <c r="I22" t="s">
-        <v>249</v>
-      </c>
-      <c r="J22">
+        <v>324</v>
+      </c>
+      <c r="J22" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22">
         <v>0.4941925031683194</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.3655364607524385</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.317</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E23">
         <v>133449</v>
@@ -2466,36 +2697,39 @@
         <v>164</v>
       </c>
       <c r="G23" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H23" t="s">
-        <v>329</v>
+        <v>167</v>
       </c>
       <c r="I23" t="s">
-        <v>287</v>
-      </c>
-      <c r="J23">
+        <v>391</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23">
         <v>0.4785648449969651</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.4269326748455036</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.365</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E24">
         <v>80727</v>
@@ -2504,1624 +2738,1747 @@
         <v>165</v>
       </c>
       <c r="G24" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H24" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="I24" t="s">
-        <v>381</v>
-      </c>
-      <c r="J24">
+        <v>392</v>
+      </c>
+      <c r="J24" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24">
         <v>0.4853394774982348</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.4138060232748091</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.353</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E25">
         <v>301492</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G25" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I25" t="s">
-        <v>291</v>
-      </c>
-      <c r="J25">
+        <v>393</v>
+      </c>
+      <c r="J25" t="s">
+        <v>296</v>
+      </c>
+      <c r="K25">
         <v>0.4364129064784472</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.4357030485463352</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.379</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E26">
         <v>2195</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.3681623392992185</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.303</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E27">
         <v>279484</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G27" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H27" t="s">
-        <v>185</v>
+        <v>303</v>
       </c>
       <c r="I27" t="s">
-        <v>395</v>
-      </c>
-      <c r="J27">
+        <v>349</v>
+      </c>
+      <c r="J27" t="s">
+        <v>454</v>
+      </c>
+      <c r="K27">
         <v>0.455392795294185</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E28">
         <v>1451</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.4069893088692018</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.355</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E29">
         <v>47375</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G29" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H29" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="I29" t="s">
-        <v>396</v>
-      </c>
-      <c r="J29">
+        <v>394</v>
+      </c>
+      <c r="J29" t="s">
+        <v>455</v>
+      </c>
+      <c r="K29">
         <v>0.3190712401055409</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E30">
         <v>42953</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G30" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H30" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="I30" t="s">
-        <v>397</v>
-      </c>
-      <c r="J30">
+        <v>395</v>
+      </c>
+      <c r="J30" t="s">
+        <v>456</v>
+      </c>
+      <c r="K30">
         <v>0.3708704863455405</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.277065963060686</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.233</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E31">
         <v>3621</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.3202337438595674</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.28</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E32">
         <v>62689</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G32" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H32" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="I32" t="s">
-        <v>398</v>
-      </c>
-      <c r="J32">
+        <v>278</v>
+      </c>
+      <c r="J32" t="s">
+        <v>457</v>
+      </c>
+      <c r="K32">
         <v>0.3740209606150999</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E33">
         <v>3477</v>
       </c>
       <c r="F33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G33" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
-        <v>334</v>
+        <v>230</v>
       </c>
       <c r="I33" t="s">
-        <v>392</v>
-      </c>
-      <c r="J33">
+        <v>396</v>
+      </c>
+      <c r="J33" t="s">
+        <v>451</v>
+      </c>
+      <c r="K33">
         <v>0.452113891285591</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.3312064317503868</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.286</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E34">
         <v>3075</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.3899913718723037</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.356</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E35">
         <v>9187</v>
       </c>
       <c r="F35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G35" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H35" t="s">
-        <v>335</v>
+        <v>194</v>
       </c>
       <c r="I35" t="s">
-        <v>328</v>
-      </c>
-      <c r="J35">
+        <v>397</v>
+      </c>
+      <c r="J35" t="s">
+        <v>390</v>
+      </c>
+      <c r="K35">
         <v>0.5397844780668336</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E36">
         <v>10456</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G36" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="H36" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="I36" t="s">
-        <v>277</v>
-      </c>
-      <c r="J36">
+        <v>298</v>
+      </c>
+      <c r="J36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K36">
         <v>0.4391736801836266</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>0.4757809948840753</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>0.409</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E37">
         <v>192534</v>
       </c>
       <c r="F37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G37" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="H37" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="I37" t="s">
-        <v>353</v>
-      </c>
-      <c r="J37">
+        <v>248</v>
+      </c>
+      <c r="J37" t="s">
+        <v>415</v>
+      </c>
+      <c r="K37">
         <v>0.4085979619184144</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.4014919663351186</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.361</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E38">
         <v>42195</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G38" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H38" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="I38" t="s">
-        <v>345</v>
-      </c>
-      <c r="J38">
+        <v>391</v>
+      </c>
+      <c r="J38" t="s">
+        <v>407</v>
+      </c>
+      <c r="K38">
         <v>0.3998104040763124</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.3422356570787497</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.284</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E39">
         <v>7623</v>
       </c>
       <c r="F39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G39" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="H39" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="I39" t="s">
-        <v>394</v>
-      </c>
-      <c r="J39">
+        <v>398</v>
+      </c>
+      <c r="J39" t="s">
+        <v>453</v>
+      </c>
+      <c r="K39">
         <v>0.4331627967991604</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>0.3165777935774381</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>0.258</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E40">
         <v>7426</v>
       </c>
       <c r="F40" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G40" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H40" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="I40" t="s">
         <v>399</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="s">
+        <v>458</v>
+      </c>
+      <c r="K40">
         <v>0.3471586318340964</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>0.3869867506231143</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>0.323</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E41">
         <v>32891</v>
       </c>
       <c r="F41" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G41" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="H41" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="I41" t="s">
         <v>400</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="s">
+        <v>459</v>
+      </c>
+      <c r="K41">
         <v>0.5274391170837007</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>0.3031241583625101</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>0.264</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E42">
         <v>172126</v>
       </c>
       <c r="F42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G42" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="H42" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="I42" t="s">
-        <v>262</v>
-      </c>
-      <c r="J42">
+        <v>370</v>
+      </c>
+      <c r="J42" t="s">
+        <v>266</v>
+      </c>
+      <c r="K42">
         <v>0.4211740236803272</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>0.4697637651637225</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>0.407</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E43">
         <v>10325</v>
       </c>
       <c r="F43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G43" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H43" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="I43" t="s">
-        <v>270</v>
-      </c>
-      <c r="J43">
+        <v>401</v>
+      </c>
+      <c r="J43" t="s">
+        <v>276</v>
+      </c>
+      <c r="K43">
         <v>0.4447457627118644</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>0.3548330873894705</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>0.289</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E44">
         <v>7865</v>
       </c>
       <c r="F44" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="G44" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
+        <v>332</v>
       </c>
       <c r="I44" t="s">
-        <v>168</v>
-      </c>
-      <c r="J44">
+        <v>327</v>
+      </c>
+      <c r="J44" t="s">
+        <v>325</v>
+      </c>
+      <c r="K44">
         <v>0.431404958677686</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>0.3826634382566586</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>0.322</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E45">
         <v>133798</v>
       </c>
       <c r="F45" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G45" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="H45" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="I45" t="s">
-        <v>401</v>
-      </c>
-      <c r="J45">
+        <v>402</v>
+      </c>
+      <c r="J45" t="s">
+        <v>460</v>
+      </c>
+      <c r="K45">
         <v>0.4483998266042841</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>0.3607120152574698</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>0.316</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E46">
         <v>3346</v>
       </c>
       <c r="F46" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G46" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H46" t="s">
-        <v>341</v>
+        <v>172</v>
       </c>
       <c r="I46" t="s">
-        <v>339</v>
-      </c>
-      <c r="J46">
+        <v>403</v>
+      </c>
+      <c r="J46" t="s">
+        <v>401</v>
+      </c>
+      <c r="K46">
         <v>0.4901374775851763</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>0.3903272096742851</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>0.33</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E47">
         <v>7359</v>
       </c>
       <c r="F47" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="G47" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H47" t="s">
-        <v>342</v>
+        <v>149</v>
       </c>
       <c r="I47" t="s">
-        <v>402</v>
-      </c>
-      <c r="J47">
+        <v>404</v>
+      </c>
+      <c r="J47" t="s">
+        <v>461</v>
+      </c>
+      <c r="K47">
         <v>0.4334828101644245</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>0.4237895995218171</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>0.192</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E48">
         <v>25395</v>
       </c>
       <c r="F48" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G48" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="H48" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="I48" t="s">
-        <v>403</v>
-      </c>
-      <c r="J48">
+        <v>405</v>
+      </c>
+      <c r="J48" t="s">
+        <v>462</v>
+      </c>
+      <c r="K48">
         <v>0.398070486316204</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>0.3549395298274222</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>0.26</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E49">
         <v>8458</v>
       </c>
       <c r="F49" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G49" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H49" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I49" t="s">
-        <v>398</v>
-      </c>
-      <c r="J49">
+        <v>406</v>
+      </c>
+      <c r="J49" t="s">
+        <v>457</v>
+      </c>
+      <c r="K49">
         <v>0.3726649326081816</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>0.3609765701909825</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>0.304</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E50">
         <v>21512</v>
       </c>
       <c r="F50" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G50" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
       <c r="H50" t="s">
-        <v>345</v>
+        <v>170</v>
       </c>
       <c r="I50" t="s">
-        <v>360</v>
-      </c>
-      <c r="J50">
+        <v>407</v>
+      </c>
+      <c r="J50" t="s">
+        <v>422</v>
+      </c>
+      <c r="K50">
         <v>0.43622164373373</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>0.3217072593993852</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>0.277</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E51">
         <v>9949</v>
       </c>
       <c r="F51" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G51" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="H51" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I51" t="s">
-        <v>396</v>
-      </c>
-      <c r="J51">
+        <v>408</v>
+      </c>
+      <c r="J51" t="s">
+        <v>455</v>
+      </c>
+      <c r="K51">
         <v>0.3258618956679063</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>0.3891781331349944</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>0.351</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E52">
         <v>4307</v>
       </c>
       <c r="F52" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G52" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H52" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I52" t="s">
-        <v>404</v>
-      </c>
-      <c r="J52">
+        <v>409</v>
+      </c>
+      <c r="J52" t="s">
+        <v>463</v>
+      </c>
+      <c r="K52">
         <v>0.3577896447643371</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>0.2930947833953161</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>0.265</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E53">
         <v>54071</v>
       </c>
       <c r="F53" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G53" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H53" t="s">
-        <v>263</v>
+        <v>350</v>
       </c>
       <c r="I53" t="s">
-        <v>231</v>
-      </c>
-      <c r="J53">
+        <v>202</v>
+      </c>
+      <c r="J53" t="s">
+        <v>374</v>
+      </c>
+      <c r="K53">
         <v>0.451295518854839</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>0.326445321569538</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>0.278</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E54">
         <v>2422</v>
       </c>
       <c r="F54" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G54" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H54" t="s">
-        <v>348</v>
+        <v>181</v>
       </c>
       <c r="I54" t="s">
-        <v>330</v>
-      </c>
-      <c r="J54">
+        <v>410</v>
+      </c>
+      <c r="J54" t="s">
+        <v>392</v>
+      </c>
+      <c r="K54">
         <v>0.5429397192402973</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>0.3843650015720073</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>0.327</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E55">
         <v>14962</v>
       </c>
       <c r="F55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G55" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="H55" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="I55" t="s">
-        <v>320</v>
-      </c>
-      <c r="J55">
+        <v>358</v>
+      </c>
+      <c r="J55" t="s">
+        <v>382</v>
+      </c>
+      <c r="K55">
         <v>0.46370806041973</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>0.4603633360858794</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>0.405</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E56">
         <v>122259</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G56" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="H56" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="I56" t="s">
-        <v>184</v>
-      </c>
-      <c r="J56">
+        <v>340</v>
+      </c>
+      <c r="J56" t="s">
+        <v>348</v>
+      </c>
+      <c r="K56">
         <v>0.5973057198243075</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>0.4112418125918995</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>0.366</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E57">
         <v>12189</v>
       </c>
       <c r="F57" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G57" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H57" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="I57" t="s">
-        <v>269</v>
-      </c>
-      <c r="J57">
+        <v>211</v>
+      </c>
+      <c r="J57" t="s">
+        <v>274</v>
+      </c>
+      <c r="K57">
         <v>0.590450406103864</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>0.5443362042876189</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>0.481</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E58">
         <v>171244</v>
       </c>
       <c r="F58" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G58" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="H58" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="I58" t="s">
-        <v>212</v>
-      </c>
-      <c r="J58">
+        <v>392</v>
+      </c>
+      <c r="J58" t="s">
+        <v>365</v>
+      </c>
+      <c r="K58">
         <v>0.5057053093831024</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>0.5464763311182214</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>0.483</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E59">
         <v>13454</v>
       </c>
       <c r="F59" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G59" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H59" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I59" t="s">
-        <v>399</v>
-      </c>
-      <c r="J59">
+        <v>411</v>
+      </c>
+      <c r="J59" t="s">
+        <v>458</v>
+      </c>
+      <c r="K59">
         <v>0.3265943213914078</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>0.4558115904790825</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>0.402</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E60">
         <v>5520</v>
       </c>
       <c r="F60" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G60" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H60" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I60" t="s">
-        <v>405</v>
-      </c>
-      <c r="J60">
+        <v>412</v>
+      </c>
+      <c r="J60" t="s">
+        <v>464</v>
+      </c>
+      <c r="K60">
         <v>0.3797101449275362</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>0.2935929834993311</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>0.249</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E61">
         <v>24440</v>
       </c>
       <c r="F61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G61" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H61" t="s">
-        <v>333</v>
+        <v>269</v>
       </c>
       <c r="I61" t="s">
-        <v>406</v>
-      </c>
-      <c r="J61">
+        <v>395</v>
+      </c>
+      <c r="J61" t="s">
+        <v>465</v>
+      </c>
+      <c r="K61">
         <v>0.3657937806873977</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>0.3309782608695652</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>0.284</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E62">
         <v>19363</v>
       </c>
       <c r="F62" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="G62" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H62" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="I62" t="s">
-        <v>208</v>
-      </c>
-      <c r="J62">
+        <v>169</v>
+      </c>
+      <c r="J62" t="s">
+        <v>311</v>
+      </c>
+      <c r="K62">
         <v>0.5540463771109849</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>0.3241407528641571</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>0.279</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E63">
         <v>101869</v>
       </c>
       <c r="F63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G63" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="H63" t="s">
-        <v>158</v>
+        <v>356</v>
       </c>
       <c r="I63" t="s">
-        <v>348</v>
-      </c>
-      <c r="J63">
+        <v>338</v>
+      </c>
+      <c r="J63" t="s">
+        <v>410</v>
+      </c>
+      <c r="K63">
         <v>0.6445631153736662</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>0.5028146464907297</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>0.443</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E64">
         <v>7285</v>
       </c>
       <c r="F64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G64" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H64" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="I64" t="s">
-        <v>346</v>
-      </c>
-      <c r="J64">
+        <v>413</v>
+      </c>
+      <c r="J64" t="s">
+        <v>408</v>
+      </c>
+      <c r="K64">
         <v>0.3427590940288264</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>0.5961283609341409</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>0.533</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E65">
         <v>4668</v>
       </c>
       <c r="F65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="H65" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
-      </c>
-      <c r="J65">
+        <v>267</v>
+      </c>
+      <c r="J65" t="s">
+        <v>269</v>
+      </c>
+      <c r="K65">
         <v>0.4779348757497858</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>0.2901853122855182</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>0.261</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E66">
         <v>167047</v>
       </c>
       <c r="F66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G66" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H66" t="s">
-        <v>352</v>
+        <v>271</v>
       </c>
       <c r="I66" t="s">
-        <v>360</v>
-      </c>
-      <c r="J66">
+        <v>414</v>
+      </c>
+      <c r="J66" t="s">
+        <v>422</v>
+      </c>
+      <c r="K66">
         <v>0.436763306135399</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>0.3451156812339332</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>0.31</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E67">
         <v>32784</v>
       </c>
       <c r="F67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G67" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H67" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I67" t="s">
-        <v>407</v>
-      </c>
-      <c r="J67">
+        <v>336</v>
+      </c>
+      <c r="J67" t="s">
+        <v>466</v>
+      </c>
+      <c r="K67">
         <v>0.5711932650073206</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>0.3907822349398672</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>0.337</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E68">
         <v>9024</v>
       </c>
       <c r="F68" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="G68" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="H68" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="I68" t="s">
-        <v>266</v>
-      </c>
-      <c r="J68">
+        <v>415</v>
+      </c>
+      <c r="J68" t="s">
+        <v>270</v>
+      </c>
+      <c r="K68">
         <v>0.398936170212766</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>0.5201622742801366</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>0.458</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E69">
         <v>35892</v>
@@ -4130,36 +4487,39 @@
         <v>202</v>
       </c>
       <c r="G69" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="H69" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="I69" t="s">
-        <v>408</v>
-      </c>
-      <c r="J69">
+        <v>416</v>
+      </c>
+      <c r="J69" t="s">
+        <v>467</v>
+      </c>
+      <c r="K69">
         <v>0.3439485122032765</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>0.3601507092198582</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>0.319</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E70">
         <v>17865</v>
@@ -4168,36 +4528,39 @@
         <v>203</v>
       </c>
       <c r="G70" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H70" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="I70" t="s">
-        <v>409</v>
-      </c>
-      <c r="J70">
+        <v>417</v>
+      </c>
+      <c r="J70" t="s">
+        <v>468</v>
+      </c>
+      <c r="K70">
         <v>0.3762104673943465</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>0.3130781232586649</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>0.274</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E71">
         <v>176376</v>
@@ -4206,150 +4569,162 @@
         <v>204</v>
       </c>
       <c r="G71" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H71" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="I71" t="s">
-        <v>262</v>
-      </c>
-      <c r="J71">
+        <v>393</v>
+      </c>
+      <c r="J71" t="s">
+        <v>266</v>
+      </c>
+      <c r="K71">
         <v>0.429037964348891</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>0.3336132101875175</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>0.29</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E72">
         <v>6396</v>
       </c>
       <c r="F72" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="G72" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="H72" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="I72" t="s">
-        <v>410</v>
-      </c>
-      <c r="J72">
+        <v>418</v>
+      </c>
+      <c r="J72" t="s">
+        <v>469</v>
+      </c>
+      <c r="K72">
         <v>0.3225453408380237</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>0.3678618406132353</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>0.305</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E73">
         <v>2585</v>
       </c>
       <c r="F73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G73" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H73" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="I73" t="s">
-        <v>411</v>
-      </c>
-      <c r="J73">
+        <v>419</v>
+      </c>
+      <c r="J73" t="s">
+        <v>470</v>
+      </c>
+      <c r="K73">
         <v>0.5071566731141199</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>0.2800187617260788</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>0.234</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E74">
         <v>66688</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="G74" t="s">
-        <v>287</v>
+        <v>177</v>
       </c>
       <c r="H74" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="I74" t="s">
-        <v>354</v>
-      </c>
-      <c r="J74">
+        <v>420</v>
+      </c>
+      <c r="J74" t="s">
+        <v>416</v>
+      </c>
+      <c r="K74">
         <v>0.3856765834932822</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>0.4413926499032882</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>0.378</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E75">
         <v>79221</v>
@@ -4358,188 +4733,203 @@
         <v>207</v>
       </c>
       <c r="G75" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="H75" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="I75" t="s">
-        <v>388</v>
-      </c>
-      <c r="J75">
+        <v>398</v>
+      </c>
+      <c r="J75" t="s">
+        <v>447</v>
+      </c>
+      <c r="K75">
         <v>0.4375859936128046</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>0.341095849328215</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>0.291</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E76">
         <v>19963</v>
       </c>
       <c r="F76" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="G76" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="H76" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="I76" t="s">
-        <v>412</v>
-      </c>
-      <c r="J76">
+        <v>421</v>
+      </c>
+      <c r="J76" t="s">
+        <v>471</v>
+      </c>
+      <c r="K76">
         <v>0.3417822972499123</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>0.3910074348973126</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>0.34</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E77">
         <v>10216</v>
       </c>
       <c r="F77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G77" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H77" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="I77" t="s">
-        <v>413</v>
-      </c>
-      <c r="J77">
+        <v>422</v>
+      </c>
+      <c r="J77" t="s">
+        <v>472</v>
+      </c>
+      <c r="K77">
         <v>0.3831245105716523</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>0.3039122376396333</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>0.268</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E78">
         <v>25604</v>
       </c>
       <c r="F78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G78" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="H78" t="s">
-        <v>361</v>
+        <v>162</v>
       </c>
       <c r="I78" t="s">
-        <v>184</v>
-      </c>
-      <c r="J78">
+        <v>224</v>
+      </c>
+      <c r="J78" t="s">
+        <v>348</v>
+      </c>
+      <c r="K78">
         <v>0.6071707545695985</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>0.3349647611589663</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>0.295</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E79">
         <v>9910</v>
       </c>
       <c r="F79" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="G79" t="s">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="H79" t="s">
-        <v>362</v>
+        <v>218</v>
       </c>
       <c r="I79" t="s">
-        <v>414</v>
-      </c>
-      <c r="J79">
+        <v>423</v>
+      </c>
+      <c r="J79" t="s">
+        <v>473</v>
+      </c>
+      <c r="K79">
         <v>0.625832492431887</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>0.5582721449773473</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>0.499</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D80" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E80">
         <v>3114</v>
@@ -4548,36 +4938,39 @@
         <v>211</v>
       </c>
       <c r="G80" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H80" t="s">
-        <v>363</v>
+        <v>247</v>
       </c>
       <c r="I80" t="s">
-        <v>415</v>
-      </c>
-      <c r="J80">
+        <v>424</v>
+      </c>
+      <c r="J80" t="s">
+        <v>474</v>
+      </c>
+      <c r="K80">
         <v>0.392742453436095</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>0.5657921291624621</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>0.498</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E81">
         <v>12673</v>
@@ -4586,36 +4979,39 @@
         <v>212</v>
       </c>
       <c r="G81" t="s">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="H81" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I81" t="s">
-        <v>416</v>
-      </c>
-      <c r="J81">
+        <v>425</v>
+      </c>
+      <c r="J81" t="s">
+        <v>475</v>
+      </c>
+      <c r="K81">
         <v>0.2989820879034168</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>0.3378291586384072</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>0.294</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E82">
         <v>16485</v>
@@ -4624,1803 +5020,1944 @@
         <v>213</v>
       </c>
       <c r="G82" t="s">
-        <v>287</v>
+        <v>177</v>
       </c>
       <c r="H82" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="I82" t="s">
         <v>417</v>
       </c>
-      <c r="J82">
+      <c r="J82" t="s">
+        <v>476</v>
+      </c>
+      <c r="K82">
         <v>0.4284501061571125</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>0.2561350903495621</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>0.217</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D83" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E83">
         <v>10213</v>
       </c>
       <c r="F83" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="G83" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H83" t="s">
-        <v>365</v>
+        <v>196</v>
       </c>
       <c r="I83" t="s">
-        <v>327</v>
-      </c>
-      <c r="J83">
+        <v>426</v>
+      </c>
+      <c r="J83" t="s">
+        <v>389</v>
+      </c>
+      <c r="K83">
         <v>0.2981494174091844</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>0.3711859265999393</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>0.309</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E84">
         <v>4651</v>
       </c>
       <c r="F84" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="G84" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H84" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I84" t="s">
-        <v>161</v>
-      </c>
-      <c r="J84">
+        <v>427</v>
+      </c>
+      <c r="J84" t="s">
+        <v>339</v>
+      </c>
+      <c r="K84">
         <v>0.4070092453235863</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>0.2563399588759424</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>0.221</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D85" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E85">
         <v>5093</v>
       </c>
       <c r="F85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G85" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H85" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="I85" t="s">
-        <v>374</v>
-      </c>
-      <c r="J85">
+        <v>202</v>
+      </c>
+      <c r="J85" t="s">
+        <v>435</v>
+      </c>
+      <c r="K85">
         <v>0.3330060867857845</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>0.3657278004730166</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>0.325</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C86" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D86" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E86">
         <v>137452</v>
       </c>
       <c r="F86" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G86" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H86" t="s">
-        <v>343</v>
+        <v>169</v>
       </c>
       <c r="I86" t="s">
-        <v>347</v>
-      </c>
-      <c r="J86">
+        <v>405</v>
+      </c>
+      <c r="J86" t="s">
+        <v>409</v>
+      </c>
+      <c r="K86">
         <v>0.4228457934406193</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>0.2721382289416847</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>0.218</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C87" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D87" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E87">
         <v>65324</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G87" t="s">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="H87" t="s">
-        <v>269</v>
+        <v>340</v>
       </c>
       <c r="I87" t="s">
-        <v>185</v>
-      </c>
-      <c r="J87">
+        <v>274</v>
+      </c>
+      <c r="J87" t="s">
+        <v>349</v>
+      </c>
+      <c r="K87">
         <v>0.5213244749249892</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>0.3793687978348805</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>0.328</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E88">
         <v>221234</v>
       </c>
       <c r="F88" t="s">
+        <v>216</v>
+      </c>
+      <c r="G88" t="s">
         <v>187</v>
       </c>
-      <c r="G88" t="s">
-        <v>297</v>
-      </c>
       <c r="H88" t="s">
-        <v>367</v>
+        <v>181</v>
       </c>
       <c r="I88" t="s">
-        <v>213</v>
-      </c>
-      <c r="J88">
+        <v>428</v>
+      </c>
+      <c r="J88" t="s">
+        <v>366</v>
+      </c>
+      <c r="K88">
         <v>0.5241147382409576</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>0.4772365439960811</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>0.426</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:13">
       <c r="A89" s="1">
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C89" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E89">
         <v>4472</v>
       </c>
       <c r="F89" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="G89" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H89" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="I89" t="s">
-        <v>377</v>
-      </c>
-      <c r="J89">
+        <v>378</v>
+      </c>
+      <c r="J89" t="s">
+        <v>437</v>
+      </c>
+      <c r="K89">
         <v>0.4300089445438283</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>0.4668224594772956</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>0.406</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:13">
       <c r="A90" s="1">
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D90" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E90">
         <v>33170</v>
       </c>
       <c r="F90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G90" t="s">
-        <v>166</v>
+        <v>303</v>
       </c>
       <c r="H90" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="I90" t="s">
-        <v>418</v>
-      </c>
-      <c r="J90">
+        <v>306</v>
+      </c>
+      <c r="J90" t="s">
+        <v>477</v>
+      </c>
+      <c r="K90">
         <v>0.4636116973168526</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>0.3443649373881931</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>0.296</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:13">
       <c r="A91" s="1">
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D91" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E91">
         <v>11785</v>
       </c>
       <c r="F91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G91" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H91" t="s">
-        <v>315</v>
+        <v>228</v>
       </c>
       <c r="I91" t="s">
-        <v>270</v>
-      </c>
-      <c r="J91">
+        <v>322</v>
+      </c>
+      <c r="J91" t="s">
+        <v>276</v>
+      </c>
+      <c r="K91">
         <v>0.3614764531183708</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>0.4160084413626771</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>0.373</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:13">
       <c r="A92" s="1">
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E92">
         <v>209432</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="G92" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H92" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="I92" t="s">
-        <v>192</v>
-      </c>
-      <c r="J92">
+        <v>293</v>
+      </c>
+      <c r="J92" t="s">
+        <v>353</v>
+      </c>
+      <c r="K92">
         <v>0.4986726001757134</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>0.2942723801442511</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>0.248</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:13">
       <c r="A93" s="1">
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E93">
         <v>167408</v>
       </c>
       <c r="F93" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G93" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H93" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="I93" t="s">
-        <v>419</v>
-      </c>
-      <c r="J93">
+        <v>292</v>
+      </c>
+      <c r="J93" t="s">
+        <v>478</v>
+      </c>
+      <c r="K93">
         <v>0.4223035936155978</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>0.4382090606975056</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>0.375</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:13">
       <c r="A94" s="1">
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C94" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E94">
         <v>70143</v>
       </c>
       <c r="F94" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="G94" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="H94" t="s">
-        <v>233</v>
+        <v>360</v>
       </c>
       <c r="I94" t="s">
-        <v>343</v>
-      </c>
-      <c r="J94">
+        <v>275</v>
+      </c>
+      <c r="J94" t="s">
+        <v>405</v>
+      </c>
+      <c r="K94">
         <v>0.4744165490497983</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>0.3545828156360508</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>0.301</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:13">
       <c r="A95" s="1">
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E95">
         <v>60306</v>
       </c>
       <c r="F95" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G95" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H95" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="I95" t="s">
-        <v>419</v>
-      </c>
-      <c r="J95">
+        <v>429</v>
+      </c>
+      <c r="J95" t="s">
+        <v>478</v>
+      </c>
+      <c r="K95">
         <v>0.4498391536497198</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>0.4243616611778795</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>0.374</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:13">
       <c r="A96" s="1">
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D96" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E96">
         <v>48845</v>
       </c>
       <c r="F96" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G96" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H96" t="s">
-        <v>336</v>
+        <v>195</v>
       </c>
       <c r="I96" t="s">
-        <v>377</v>
-      </c>
-      <c r="J96">
+        <v>398</v>
+      </c>
+      <c r="J96" t="s">
+        <v>437</v>
+      </c>
+      <c r="K96">
         <v>0.4254068993755758</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>0.4064603853679568</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>0.347</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:13">
       <c r="A97" s="1">
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D97" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E97">
         <v>133377</v>
       </c>
       <c r="F97" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G97" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H97" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I97" t="s">
-        <v>355</v>
-      </c>
-      <c r="J97">
+        <v>354</v>
+      </c>
+      <c r="J97" t="s">
+        <v>417</v>
+      </c>
+      <c r="K97">
         <v>0.4575676465957399</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>0.3803050465759034</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>0.329</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:13">
       <c r="A98" s="1">
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C98" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D98" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E98">
         <v>18938</v>
       </c>
       <c r="F98" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G98" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H98" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I98" t="s">
-        <v>420</v>
-      </c>
-      <c r="J98">
+        <v>430</v>
+      </c>
+      <c r="J98" t="s">
+        <v>479</v>
+      </c>
+      <c r="K98">
         <v>0.3693103812440596</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>0.4105730373302744</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>0.36</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:13">
       <c r="A99" s="1">
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C99" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D99" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E99">
         <v>110141</v>
       </c>
       <c r="F99" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G99" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H99" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="I99" t="s">
-        <v>342</v>
-      </c>
-      <c r="J99">
+        <v>254</v>
+      </c>
+      <c r="J99" t="s">
+        <v>404</v>
+      </c>
+      <c r="K99">
         <v>0.492722964200434</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>0.3387897349244904</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>0.303</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:13">
       <c r="A100" s="1">
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D100" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E100">
         <v>58715</v>
       </c>
       <c r="F100" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G100" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H100" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I100" t="s">
-        <v>419</v>
-      </c>
-      <c r="J100">
+        <v>431</v>
+      </c>
+      <c r="J100" t="s">
+        <v>478</v>
+      </c>
+      <c r="K100">
         <v>0.4384739845014051</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>0.4403264905893355</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>0.378</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:13">
       <c r="A101" s="1">
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C101" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D101" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E101">
         <v>87725</v>
       </c>
       <c r="F101" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G101" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H101" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I101" t="s">
-        <v>311</v>
-      </c>
-      <c r="J101">
+        <v>432</v>
+      </c>
+      <c r="J101" t="s">
+        <v>317</v>
+      </c>
+      <c r="K101">
         <v>0.4965631233969792</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <v>0.3805330835391297</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>0.333</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:13">
       <c r="A102" s="1">
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C102" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D102" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E102">
         <v>18334</v>
       </c>
       <c r="F102" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G102" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H102" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I102" t="s">
-        <v>399</v>
-      </c>
-      <c r="J102">
+        <v>433</v>
+      </c>
+      <c r="J102" t="s">
+        <v>458</v>
+      </c>
+      <c r="K102">
         <v>0.3388240427620814</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>0.4518438301510402</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>0.399</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:13">
       <c r="A103" s="1">
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C103" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D103" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E103">
         <v>17214</v>
       </c>
       <c r="F103" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="G103" t="s">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="H103" t="s">
-        <v>373</v>
+        <v>250</v>
       </c>
       <c r="I103" t="s">
-        <v>421</v>
-      </c>
-      <c r="J103">
+        <v>434</v>
+      </c>
+      <c r="J103" t="s">
+        <v>480</v>
+      </c>
+      <c r="K103">
         <v>0.441617288253747</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <v>0.2957347005563434</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>0.254</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:13">
       <c r="A104" s="1">
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C104" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D104" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E104">
         <v>11726</v>
       </c>
       <c r="F104" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G104" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H104" t="s">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="I104" t="s">
-        <v>422</v>
-      </c>
-      <c r="J104">
+        <v>435</v>
+      </c>
+      <c r="J104" t="s">
+        <v>481</v>
+      </c>
+      <c r="K104">
         <v>0.4146341463414634</v>
       </c>
-      <c r="K104">
+      <c r="L104">
         <v>0.3855001742767515</v>
       </c>
-      <c r="L104">
+      <c r="M104">
         <v>0.328</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:13">
       <c r="A105" s="1">
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D105" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E105">
         <v>40017</v>
       </c>
       <c r="F105" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="G105" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H105" t="s">
-        <v>263</v>
+        <v>371</v>
       </c>
       <c r="I105" t="s">
-        <v>323</v>
-      </c>
-      <c r="J105">
+        <v>202</v>
+      </c>
+      <c r="J105" t="s">
+        <v>385</v>
+      </c>
+      <c r="K105">
         <v>0.4694504835444936</v>
       </c>
-      <c r="K105">
+      <c r="L105">
         <v>0.3797543919495139</v>
       </c>
-      <c r="L105">
+      <c r="M105">
         <v>0.322</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:13">
       <c r="A106" s="1">
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C106" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D106" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E106">
         <v>187018</v>
       </c>
       <c r="F106" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="G106" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H106" t="s">
-        <v>206</v>
+        <v>372</v>
       </c>
       <c r="I106" t="s">
-        <v>423</v>
-      </c>
-      <c r="J106">
+        <v>363</v>
+      </c>
+      <c r="J106" t="s">
+        <v>482</v>
+      </c>
+      <c r="K106">
         <v>0.5557753799099552</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <v>0.4124497088737286</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <v>0.353</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:13">
       <c r="A107" s="1">
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D107" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E107">
         <v>229059</v>
       </c>
       <c r="F107" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="G107" t="s">
-        <v>167</v>
+        <v>315</v>
       </c>
       <c r="H107" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="I107" t="s">
-        <v>422</v>
-      </c>
-      <c r="J107">
+        <v>279</v>
+      </c>
+      <c r="J107" t="s">
+        <v>481</v>
+      </c>
+      <c r="K107">
         <v>0.4052012800195583</v>
       </c>
-      <c r="K107">
+      <c r="L107">
         <v>0.490792330150039</v>
       </c>
-      <c r="L107">
+      <c r="M107">
         <v>0.426</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:13">
       <c r="A108" s="1">
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C108" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E108">
         <v>49648</v>
       </c>
       <c r="F108" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G108" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H108" t="s">
-        <v>375</v>
+        <v>257</v>
       </c>
       <c r="I108" t="s">
-        <v>266</v>
-      </c>
-      <c r="J108">
+        <v>436</v>
+      </c>
+      <c r="J108" t="s">
+        <v>270</v>
+      </c>
+      <c r="K108">
         <v>0.3935505961972285</v>
       </c>
-      <c r="K108">
+      <c r="L108">
         <v>0.3629195971343627</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <v>0.319</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:13">
       <c r="A109" s="1">
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C109" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109">
         <v>5095</v>
       </c>
       <c r="F109" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G109" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H109" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="I109" t="s">
-        <v>424</v>
-      </c>
-      <c r="J109">
+        <v>426</v>
+      </c>
+      <c r="J109" t="s">
+        <v>483</v>
+      </c>
+      <c r="K109">
         <v>0.3762512266928361</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <v>0.3483725427006123</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <v>0.303</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:13">
       <c r="A110" s="1">
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E110">
         <v>5553</v>
       </c>
       <c r="F110" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G110" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H110" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I110" t="s">
-        <v>425</v>
-      </c>
-      <c r="J110">
+        <v>433</v>
+      </c>
+      <c r="J110" t="s">
+        <v>484</v>
+      </c>
+      <c r="K110">
         <v>0.324689357104268</v>
       </c>
-      <c r="K110">
+      <c r="L110">
         <v>0.321099116781158</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <v>0.288</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:13">
       <c r="A111" s="1">
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C111" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D111" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E111">
         <v>140271</v>
       </c>
       <c r="F111" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="G111" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H111" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I111" t="s">
-        <v>426</v>
-      </c>
-      <c r="J111">
+        <v>186</v>
+      </c>
+      <c r="J111" t="s">
+        <v>485</v>
+      </c>
+      <c r="K111">
         <v>0.5969302279159626</v>
       </c>
-      <c r="K111">
+      <c r="L111">
         <v>0.249414730776157</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <v>0.209</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:13">
       <c r="A112" s="1">
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C112" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D112" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E112">
         <v>80193</v>
       </c>
       <c r="F112" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G112" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H112" t="s">
-        <v>377</v>
+        <v>275</v>
       </c>
       <c r="I112" t="s">
-        <v>266</v>
-      </c>
-      <c r="J112">
+        <v>437</v>
+      </c>
+      <c r="J112" t="s">
+        <v>270</v>
+      </c>
+      <c r="K112">
         <v>0.4116194680333695</v>
       </c>
-      <c r="K112">
+      <c r="L112">
         <v>0.5350785265664321</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <v>0.466</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:13">
       <c r="A113" s="1">
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C113" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D113" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E113">
         <v>11302</v>
       </c>
       <c r="F113" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="G113" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="H113" t="s">
-        <v>378</v>
+        <v>194</v>
       </c>
       <c r="I113" t="s">
-        <v>427</v>
-      </c>
-      <c r="J113">
+        <v>438</v>
+      </c>
+      <c r="J113" t="s">
+        <v>486</v>
+      </c>
+      <c r="K113">
         <v>0.4471774907096089</v>
       </c>
-      <c r="K113">
+      <c r="L113">
         <v>0.3599690746075094</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <v>0.311</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:13">
       <c r="A114" s="1">
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C114" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D114" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E114">
         <v>6603</v>
       </c>
       <c r="F114" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G114" t="s">
-        <v>226</v>
+        <v>320</v>
       </c>
       <c r="H114" t="s">
-        <v>379</v>
+        <v>206</v>
       </c>
       <c r="I114" t="s">
-        <v>306</v>
-      </c>
-      <c r="J114">
+        <v>439</v>
+      </c>
+      <c r="J114" t="s">
+        <v>310</v>
+      </c>
+      <c r="K114">
         <v>0.4414660003028926</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:13">
       <c r="A115" s="1">
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C115" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D115" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E115">
         <v>4895</v>
       </c>
       <c r="F115" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="G115" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="H115" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I115" t="s">
-        <v>418</v>
-      </c>
-      <c r="J115">
+        <v>353</v>
+      </c>
+      <c r="J115" t="s">
+        <v>477</v>
+      </c>
+      <c r="K115">
         <v>0.4553626149131767</v>
       </c>
-      <c r="K115">
+      <c r="L115">
         <v>0.3886037869403646</v>
       </c>
-      <c r="L115">
+      <c r="M115">
         <v>0.34</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:13">
       <c r="A116" s="1">
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C116" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D116" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E116">
         <v>51794</v>
       </c>
       <c r="F116" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G116" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H116" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I116" t="s">
-        <v>355</v>
-      </c>
-      <c r="J116">
+        <v>440</v>
+      </c>
+      <c r="J116" t="s">
+        <v>417</v>
+      </c>
+      <c r="K116">
         <v>0.4683554079623122</v>
       </c>
-      <c r="K116">
+      <c r="L116">
         <v>0.380736029077692</v>
       </c>
-      <c r="L116">
+      <c r="M116">
         <v>0.305</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:13">
       <c r="A117" s="1">
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C117" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D117" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E117">
         <v>2585</v>
       </c>
       <c r="F117" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="G117" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H117" t="s">
-        <v>178</v>
+        <v>377</v>
       </c>
       <c r="I117" t="s">
-        <v>428</v>
-      </c>
-      <c r="J117">
+        <v>344</v>
+      </c>
+      <c r="J117" t="s">
+        <v>198</v>
+      </c>
+      <c r="K117">
         <v>0.5597678916827853</v>
       </c>
-      <c r="K117">
+      <c r="L117">
         <v>0.4130745658835546</v>
       </c>
-      <c r="L117">
+      <c r="M117">
         <v>0.328</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:13">
       <c r="A118" s="1">
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C118" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D118" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E118">
         <v>4688</v>
       </c>
-      <c r="K118">
+      <c r="L118">
         <v>0.4270958026026181</v>
       </c>
-      <c r="L118">
+      <c r="M118">
         <v>0.372</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:13">
       <c r="A119" s="1">
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D119" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E119">
         <v>2115</v>
       </c>
       <c r="F119" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="G119" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H119" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="I119" t="s">
-        <v>429</v>
-      </c>
-      <c r="J119">
+        <v>196</v>
+      </c>
+      <c r="J119" t="s">
+        <v>487</v>
+      </c>
+      <c r="K119">
         <v>0.3962174940898346</v>
       </c>
-      <c r="K119">
+      <c r="L119">
         <v>0.5245647969052224</v>
       </c>
-      <c r="L119">
+      <c r="M119">
         <v>0.472</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:13">
       <c r="A120" s="1">
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C120" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D120" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E120">
         <v>7566</v>
       </c>
       <c r="F120" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G120" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H120" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
       <c r="I120" t="s">
-        <v>430</v>
-      </c>
-      <c r="J120">
+        <v>161</v>
+      </c>
+      <c r="J120" t="s">
+        <v>488</v>
+      </c>
+      <c r="K120">
         <v>0.3563309542690986</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:13">
       <c r="A121" s="1">
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C121" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D121" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E121">
         <v>62490</v>
       </c>
       <c r="F121" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="G121" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H121" t="s">
-        <v>382</v>
+        <v>232</v>
       </c>
       <c r="I121" t="s">
-        <v>168</v>
-      </c>
-      <c r="J121">
+        <v>441</v>
+      </c>
+      <c r="J121" t="s">
+        <v>325</v>
+      </c>
+      <c r="K121">
         <v>0.5100496079372699</v>
       </c>
-      <c r="K121">
+      <c r="L121">
         <v>0.3574468085106383</v>
       </c>
-      <c r="L121">
+      <c r="M121">
         <v>0.287</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:13">
       <c r="A122" s="1">
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C122" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D122" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E122">
         <v>3030</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G122" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="H122" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="I122" t="s">
-        <v>373</v>
-      </c>
-      <c r="J122">
+        <v>308</v>
+      </c>
+      <c r="J122" t="s">
+        <v>434</v>
+      </c>
+      <c r="K122">
         <v>0.4514851485148515</v>
       </c>
-      <c r="K122">
+      <c r="L122">
         <v>0.2967221781654771</v>
       </c>
-      <c r="L122">
+      <c r="M122">
         <v>0.242</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:13">
       <c r="A123" s="1">
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D123" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E123">
         <v>5625</v>
       </c>
       <c r="F123" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G123" t="s">
-        <v>168</v>
+        <v>325</v>
       </c>
       <c r="H123" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="I123" t="s">
-        <v>431</v>
-      </c>
-      <c r="J123">
+        <v>409</v>
+      </c>
+      <c r="J123" t="s">
+        <v>489</v>
+      </c>
+      <c r="K123">
         <v>0.376</v>
       </c>
-      <c r="K123">
+      <c r="L123">
         <v>0.4647143542966874</v>
       </c>
-      <c r="L123">
+      <c r="M123">
         <v>0.417</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:13">
       <c r="A124" s="1">
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C124" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D124" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E124">
         <v>65599</v>
       </c>
       <c r="F124" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G124" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
       <c r="H124" t="s">
-        <v>383</v>
+        <v>222</v>
       </c>
       <c r="I124" t="s">
-        <v>357</v>
-      </c>
-      <c r="J124">
+        <v>442</v>
+      </c>
+      <c r="J124" t="s">
+        <v>419</v>
+      </c>
+      <c r="K124">
         <v>0.5317916431652921</v>
       </c>
-      <c r="K124">
+      <c r="L124">
         <v>0.3881188118811882</v>
       </c>
-      <c r="L124">
+      <c r="M124">
         <v>0.339</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:13">
       <c r="A125" s="1">
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C125" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D125" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E125">
         <v>42191</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G125" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H125" t="s">
-        <v>230</v>
+        <v>379</v>
       </c>
       <c r="I125" t="s">
-        <v>307</v>
-      </c>
-      <c r="J125">
+        <v>373</v>
+      </c>
+      <c r="J125" t="s">
+        <v>312</v>
+      </c>
+      <c r="K125">
         <v>0.540281102604821</v>
       </c>
-      <c r="K125">
+      <c r="L125">
         <v>0.3322666666666666</v>
       </c>
-      <c r="L125">
+      <c r="M125">
         <v>0.295</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:13">
       <c r="A126" s="1">
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C126" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D126" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E126">
         <v>41492</v>
       </c>
       <c r="F126" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G126" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="H126" t="s">
-        <v>295</v>
+        <v>380</v>
       </c>
       <c r="I126" t="s">
-        <v>432</v>
-      </c>
-      <c r="J126">
+        <v>301</v>
+      </c>
+      <c r="J126" t="s">
+        <v>490</v>
+      </c>
+      <c r="K126">
         <v>0.4352646293261351</v>
       </c>
-      <c r="K126">
+      <c r="L126">
         <v>0.4854189850455037</v>
       </c>
-      <c r="L126">
+      <c r="M126">
         <v>0.428</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:13">
       <c r="A127" s="1">
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D127" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E127">
         <v>179317</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G127" t="s">
-        <v>148</v>
+        <v>327</v>
       </c>
       <c r="H127" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I127" t="s">
-        <v>392</v>
-      </c>
-      <c r="J127">
+        <v>443</v>
+      </c>
+      <c r="J127" t="s">
+        <v>451</v>
+      </c>
+      <c r="K127">
         <v>0.4548035044083941</v>
       </c>
-      <c r="K127">
+      <c r="L127">
         <v>0.4924746983953924</v>
       </c>
-      <c r="L127">
+      <c r="M127">
         <v>0.444</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:13">
       <c r="A128" s="1">
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C128" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D128" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E128">
         <v>50326</v>
       </c>
       <c r="F128" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="G128" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="H128" t="s">
-        <v>385</v>
+        <v>227</v>
       </c>
       <c r="I128" t="s">
-        <v>216</v>
-      </c>
-      <c r="J128">
+        <v>444</v>
+      </c>
+      <c r="J128" t="s">
+        <v>169</v>
+      </c>
+      <c r="K128">
         <v>0.6123276238922227</v>
       </c>
-      <c r="K128">
+      <c r="L128">
         <v>0.3801937722934541</v>
       </c>
-      <c r="L128">
+      <c r="M128">
         <v>0.323</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:13">
       <c r="A129" s="1">
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C129" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D129" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E129">
         <v>13497</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G129" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="H129" t="s">
-        <v>342</v>
+        <v>209</v>
       </c>
       <c r="I129" t="s">
-        <v>395</v>
-      </c>
-      <c r="J129">
+        <v>404</v>
+      </c>
+      <c r="J129" t="s">
+        <v>454</v>
+      </c>
+      <c r="K129">
         <v>0.4637326813365933</v>
       </c>
-      <c r="K129">
+      <c r="L129">
         <v>0.4133071599457943</v>
       </c>
-      <c r="L129">
+      <c r="M129">
         <v>0.363</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:13">
       <c r="A130" s="1">
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C130" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D130" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E130">
         <v>801</v>
       </c>
-      <c r="K130">
+      <c r="L130">
         <v>0.5661089695187378</v>
       </c>
-      <c r="L130">
+      <c r="M130">
         <v>0.514</v>
       </c>
     </row>
